--- a/Check.xlsx
+++ b/Check.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -35,6 +35,9 @@
     <t>High</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Проверка ввода некорректного логина и/или пароля</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
     <t>Проверка на перехват данных при отправке на сервер</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>Проверка на наличие SQL-инъекций в поле логина</t>
   </si>
   <si>
@@ -132,6 +138,15 @@
   </si>
   <si>
     <t>Проверка работы приложения на различных версиях Android</t>
+  </si>
+  <si>
+    <t>Нестиабильное/отсутствие интернет-соединения</t>
+  </si>
+  <si>
+    <t>Авторизация при плохом интернет-соединении</t>
+  </si>
+  <si>
+    <t>Авторизация при полном отсутствии интернет-соединения</t>
   </si>
 </sst>
 </file>
@@ -257,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -279,7 +294,6 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -294,7 +308,11 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -545,276 +563,354 @@
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="8"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="8"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="8"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="8"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="8"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="8"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="8"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="7"/>
+      <c r="A23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="9"/>
-      <c r="B24" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="7"/>
+      <c r="A25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="9"/>
-      <c r="B26" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="7"/>
+      <c r="A27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8"/>
+      <c r="B29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -822,9 +918,10 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C27">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C29">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -860,103 +957,103 @@
     </row>
     <row r="2">
       <c r="A2" s="14"/>
-      <c r="B2" s="7"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6">
       <c r="A6" s="14"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="14"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="14"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
     </row>
     <row r="18">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
     </row>
     <row r="21">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
